--- a/doc/测试用例/管理员测试用例.xlsx
+++ b/doc/测试用例/管理员测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>用例标识</t>
   </si>
@@ -84,6 +84,9 @@
     <t>用户名=fff；密码=fff</t>
   </si>
   <si>
+    <t>用户名不存在</t>
+  </si>
+  <si>
     <t>HomeWorkSystem_TC_003</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>用户名=admin；密码=</t>
   </si>
   <si>
+    <t>密码不能为空</t>
+  </si>
+  <si>
     <t>HomeWorkSystem_TC_005</t>
   </si>
   <si>
@@ -313,6 +319,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>选择框=</t>
     </r>
     <r>
@@ -320,7 +333,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>√</t>
     </r>
@@ -366,21 +379,19 @@
   </si>
   <si>
     <t>HomeWorkSystem_TC_0027</t>
-  </si>
-  <si>
-    <t>用户名不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不能为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,25 +402,349 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -417,9 +752,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -434,10 +1011,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -728,32 +1352,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="31.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.775" customWidth="1"/>
+    <col min="4" max="4" width="10.775" customWidth="1"/>
+    <col min="5" max="5" width="17.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="38.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.2166666666667" customWidth="1"/>
+    <col min="8" max="8" width="38.2166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -808,7 +1432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:8">
       <c r="G3">
         <v>2</v>
       </c>
@@ -816,7 +1440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:8">
       <c r="G4">
         <v>3</v>
       </c>
@@ -824,7 +1448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:9">
       <c r="G5">
         <v>4</v>
       </c>
@@ -835,7 +1459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -861,7 +1485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:8">
       <c r="G8">
         <v>2</v>
       </c>
@@ -869,7 +1493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:8">
       <c r="G9">
         <v>3</v>
       </c>
@@ -877,7 +1501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:9">
       <c r="G10">
         <v>4</v>
       </c>
@@ -885,18 +1509,18 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -905,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -914,7 +1538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:8">
       <c r="G13">
         <v>2</v>
       </c>
@@ -922,7 +1546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:8">
       <c r="G14">
         <v>3</v>
       </c>
@@ -930,7 +1554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:9">
       <c r="G15">
         <v>4</v>
       </c>
@@ -938,18 +1562,18 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -958,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -967,7 +1591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:8">
       <c r="G18">
         <v>2</v>
       </c>
@@ -975,7 +1599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:8">
       <c r="G19">
         <v>3</v>
       </c>
@@ -983,7 +1607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:9">
       <c r="G20">
         <v>4</v>
       </c>
@@ -991,18 +1615,18 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1011,7 +1635,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1020,7 +1644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:8">
       <c r="G23">
         <v>2</v>
       </c>
@@ -1028,7 +1652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:8">
       <c r="G24">
         <v>3</v>
       </c>
@@ -1036,7 +1660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:9">
       <c r="G25">
         <v>4</v>
       </c>
@@ -1044,15 +1668,15 @@
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:9">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1061,143 +1685,143 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8">
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8">
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8">
       <c r="G32">
         <v>4</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
       <c r="G33">
         <v>5</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34"/>
       <c r="G34">
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="36" ht="40.5" spans="1:9">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8">
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8">
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8">
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8">
       <c r="G40">
         <v>4</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9">
       <c r="G41">
         <v>5</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" ht="27" spans="1:9">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
         <v>20</v>
@@ -1206,675 +1830,675 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8">
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8">
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8">
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8">
       <c r="G47">
         <v>4</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9">
       <c r="G48">
         <v>5</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="1:9">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8">
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8">
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8">
       <c r="G53">
         <v>3</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8">
       <c r="G54">
         <v>4</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9">
       <c r="G55">
         <v>5</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" ht="27" spans="1:9">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8">
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8">
       <c r="G59">
         <v>2</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8">
       <c r="G60">
         <v>3</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8">
       <c r="G61">
         <v>4</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9">
       <c r="G62">
         <v>5</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" ht="40.5" spans="1:9">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8">
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8">
       <c r="G66">
         <v>2</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
       <c r="G67">
         <v>3</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
       <c r="G68">
         <v>4</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9">
       <c r="G69">
         <v>5</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" ht="27" spans="1:8">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8">
       <c r="G73">
         <v>2</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8">
       <c r="G74">
         <v>3</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8">
       <c r="G75">
         <v>4</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9">
       <c r="G76">
         <v>5</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I76" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8">
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8">
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8">
       <c r="G81">
         <v>3</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8">
       <c r="G82">
         <v>4</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9">
       <c r="G83">
         <v>5</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I83" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" ht="40.5" spans="1:8">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8">
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8">
       <c r="G89">
         <v>2</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8">
       <c r="G90">
         <v>3</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8">
       <c r="G91">
         <v>4</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="7:9">
       <c r="G92">
         <v>5</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I92" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
       <c r="B93"/>
       <c r="F93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="94" ht="40.5" spans="1:8">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
       <c r="G96">
         <v>2</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8">
       <c r="G97">
         <v>3</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8">
       <c r="G98">
         <v>4</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9">
       <c r="G99">
         <v>5</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I99" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" ht="40.5" spans="1:8">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C101" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8">
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8">
       <c r="G103">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8">
       <c r="G104">
         <v>3</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8">
       <c r="G105">
         <v>4</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9">
       <c r="G106">
         <v>5</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I106" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" ht="40.5" spans="1:8">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C108" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8">
       <c r="G109">
         <v>1</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8">
       <c r="G110">
         <v>2</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8">
       <c r="G111">
         <v>3</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8">
       <c r="G112">
         <v>4</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9">
       <c r="G113">
         <v>5</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I113" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
@@ -1883,40 +2507,40 @@
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8">
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9">
       <c r="G119">
         <v>2</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I119" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C121" t="s">
         <v>20</v>
@@ -1925,124 +2549,124 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8">
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9">
       <c r="G123">
         <v>2</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I123" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8">
       <c r="G126">
         <v>1</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9">
       <c r="G127">
         <v>2</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I127" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8">
       <c r="G130">
         <v>1</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="7:9">
       <c r="G131">
         <v>2</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I131" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" spans="1:8">
       <c r="A133" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
@@ -2051,82 +2675,82 @@
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8">
       <c r="G134">
         <v>1</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="7:9">
       <c r="G135">
         <v>2</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I135" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" spans="1:8">
       <c r="A137" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8">
       <c r="G138">
         <v>1</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="7:9">
       <c r="G139">
         <v>2</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I139" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C141" t="s">
         <v>20</v>
@@ -2135,40 +2759,40 @@
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="7:8">
       <c r="G142">
         <v>1</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="143" spans="7:9">
       <c r="G143">
         <v>2</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I143" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" spans="1:8">
       <c r="A146" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
@@ -2177,82 +2801,82 @@
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8">
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148" spans="7:9">
       <c r="G148">
         <v>2</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I148" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" spans="1:8">
       <c r="A150" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="7:8">
       <c r="G151">
         <v>1</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" spans="7:9">
       <c r="G152">
         <v>2</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I152" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C154" t="s">
         <v>20</v>
@@ -2261,63 +2885,69 @@
         <v>12</v>
       </c>
       <c r="E154" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="7:8">
       <c r="G155">
         <v>1</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="7:9">
       <c r="G156">
         <v>2</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I156" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>